--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.03629999999999</v>
+        <v>-11.96179999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.55769999999998</v>
+        <v>-21.765</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.49369999999999</v>
+        <v>-21.48909999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.3893</v>
+        <v>-10.256</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.5679</v>
+        <v>-13.5156</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.18990000000001</v>
+        <v>-22.27160000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.77940000000002</v>
+        <v>-12.77550000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.8482</v>
+        <v>-12.5531</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.4166</v>
+        <v>-13.38809999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.06359999999999</v>
+        <v>-20.22829999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.0666</v>
+        <v>-12.3001</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.12780000000001</v>
+        <v>-22.23120000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.6257</v>
+        <v>-12.8645</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.4482</v>
+        <v>-21.41899999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.8296</v>
+        <v>-10.91670000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.24709999999997</v>
+        <v>-20.10189999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62609999999998</v>
+        <v>-19.73179999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.23869999999999</v>
+        <v>-13.54669999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.5476</v>
+        <v>-12.3713</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.2677</v>
+        <v>-10.217</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.5404</v>
+        <v>-12.8869</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.5697</v>
+        <v>-12.3563</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.27240000000001</v>
+        <v>-11.66580000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.7576</v>
+        <v>-12.9682</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
